--- a/data/trans_orig/IP07A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F705F22-EAFC-46D6-8D2D-4EF5996EA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4CFA5E-001B-4024-8D13-F51DDF4DE461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C735DA3C-8117-4725-984F-4DC6B9322982}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87F3B280-6AC9-4C2A-B236-57A7CDF5F274}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
   <si>
     <t>Menores según frecuencia de preocuparse por su aspecto en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -79,1531 +79,1513 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,3%</t>
+    <t>10,07%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>7,17%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2016 (Tasa respuesta: 47,22%)</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2015 (Tasa respuesta: 47,22%)</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>16,56%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
+    <t>30,22%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>26,28%</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44B81CE-89C5-42EF-B1E8-3B90FDF8A72A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE6EC11-ADBE-429D-8670-E1E24E0EB17C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2821,13 +2803,13 @@
         <v>15399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2836,13 +2818,13 @@
         <v>24903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2839,13 @@
         <v>14705</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -2872,13 +2854,13 @@
         <v>17145</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -2887,13 +2869,13 @@
         <v>31851</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2890,13 @@
         <v>11959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2923,13 +2905,13 @@
         <v>8649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2938,13 +2920,13 @@
         <v>20608</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2941,13 @@
         <v>13088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2974,13 +2956,13 @@
         <v>8059</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -2989,13 +2971,13 @@
         <v>21147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3045,13 @@
         <v>38152</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>93</v>
@@ -3078,13 +3060,13 @@
         <v>62864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>149</v>
@@ -3093,13 +3075,13 @@
         <v>101016</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3096,13 @@
         <v>61679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -3129,13 +3111,13 @@
         <v>79584</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>209</v>
@@ -3144,13 +3126,13 @@
         <v>141264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3147,13 @@
         <v>94627</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>141</v>
@@ -3180,13 +3162,13 @@
         <v>95076</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>282</v>
@@ -3195,13 +3177,13 @@
         <v>189703</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3198,13 @@
         <v>66141</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -3231,13 +3213,13 @@
         <v>34382</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>152</v>
@@ -3246,13 +3228,13 @@
         <v>100523</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3249,13 @@
         <v>82796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>73</v>
@@ -3282,13 +3264,13 @@
         <v>48946</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -3297,13 +3279,13 @@
         <v>131742</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3341,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA4A610-DF8E-4269-9A08-80F843DD91FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044A761F-1CA1-43AC-8097-E47D31E9627D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3484,13 @@
         <v>6176</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3517,13 +3499,13 @@
         <v>14477</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3532,13 +3514,13 @@
         <v>20653</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3535,13 @@
         <v>7067</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3568,13 +3550,13 @@
         <v>5412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3583,13 +3565,13 @@
         <v>12478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3586,13 @@
         <v>10286</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -3619,13 +3601,13 @@
         <v>13548</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -3634,13 +3616,13 @@
         <v>23834</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3637,13 @@
         <v>11319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3670,13 +3652,13 @@
         <v>10100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3685,13 +3667,13 @@
         <v>21418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3688,13 @@
         <v>10398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -3721,13 +3703,13 @@
         <v>9547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -3736,13 +3718,13 @@
         <v>19945</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3792,13 @@
         <v>40305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3825,13 +3807,13 @@
         <v>54106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -3840,13 +3822,13 @@
         <v>94411</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3843,13 @@
         <v>40879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>63</v>
@@ -3876,13 +3858,13 @@
         <v>43930</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -3891,13 +3873,13 @@
         <v>84809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3894,13 @@
         <v>54020</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -3927,13 +3909,13 @@
         <v>54412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>159</v>
@@ -3942,13 +3924,13 @@
         <v>108432</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3945,13 @@
         <v>29171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3978,13 +3960,13 @@
         <v>19680</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3993,13 +3975,13 @@
         <v>48850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +3996,13 @@
         <v>64348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -4029,13 +4011,13 @@
         <v>33408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -4044,13 +4026,13 @@
         <v>97756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4100,13 @@
         <v>10228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4133,13 +4115,13 @@
         <v>10939</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -4148,13 +4130,13 @@
         <v>21167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4151,13 @@
         <v>10057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4184,13 +4166,13 @@
         <v>15901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -4199,13 +4181,13 @@
         <v>25958</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4202,13 @@
         <v>16005</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -4235,13 +4217,13 @@
         <v>16586</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -4250,13 +4232,13 @@
         <v>32591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4253,13 @@
         <v>7695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4286,13 +4268,13 @@
         <v>7425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4301,13 +4283,13 @@
         <v>15120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4304,13 @@
         <v>13323</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -4337,13 +4319,13 @@
         <v>12567</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -4352,13 +4334,13 @@
         <v>25890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4408,13 @@
         <v>56710</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -4441,13 +4423,13 @@
         <v>79522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4456,13 +4438,13 @@
         <v>136231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4459,13 @@
         <v>58003</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -4492,13 +4474,13 @@
         <v>65242</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>178</v>
@@ -4507,13 +4489,13 @@
         <v>123245</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4510,13 @@
         <v>80310</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>120</v>
@@ -4543,13 +4525,13 @@
         <v>84546</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -4558,7 +4540,7 @@
         <v>164856</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>342</v>
@@ -4594,13 +4576,13 @@
         <v>37204</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -4609,13 +4591,13 @@
         <v>85389</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4612,13 @@
         <v>88069</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
@@ -4645,13 +4627,13 @@
         <v>55521</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="M26" s="7">
         <v>205</v>
@@ -4660,13 +4642,13 @@
         <v>143590</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>236</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4704,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6AC11E-8585-43F0-8A5A-5214B00CA369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CFB3E5-CA1B-4D08-8A80-FA11ED34EB70}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4758,7 +4740,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4865,13 +4847,13 @@
         <v>3675</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4880,13 +4862,13 @@
         <v>4639</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4895,13 +4877,13 @@
         <v>8315</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4898,13 @@
         <v>5568</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4931,13 +4913,13 @@
         <v>6436</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -4946,13 +4928,13 @@
         <v>12004</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4949,13 @@
         <v>5078</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4982,13 +4964,13 @@
         <v>7241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -4997,13 +4979,13 @@
         <v>12319</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5000,13 @@
         <v>14296</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5033,13 +5015,13 @@
         <v>4967</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5048,13 +5030,13 @@
         <v>19263</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5051,13 @@
         <v>8021</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5084,13 +5066,13 @@
         <v>8531</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5099,13 +5081,13 @@
         <v>16552</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5155,13 @@
         <v>45682</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -5188,13 +5170,13 @@
         <v>65289</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -5203,13 +5185,13 @@
         <v>110971</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5206,13 @@
         <v>50155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>69</v>
@@ -5239,13 +5221,13 @@
         <v>48279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>414</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -5254,13 +5236,13 @@
         <v>98434</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5257,13 @@
         <v>43514</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>72</v>
@@ -5290,13 +5272,13 @@
         <v>49558</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>133</v>
@@ -5305,13 +5287,13 @@
         <v>93072</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>423</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5308,13 @@
         <v>44452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -5341,13 +5323,13 @@
         <v>34969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -5356,13 +5338,13 @@
         <v>79421</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>422</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5359,13 @@
         <v>62859</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -5392,13 +5374,13 @@
         <v>51916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M14" s="7">
         <v>159</v>
@@ -5407,13 +5389,13 @@
         <v>114775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5463,13 @@
         <v>16954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5496,13 +5478,13 @@
         <v>14464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -5511,13 +5493,13 @@
         <v>31418</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5514,13 @@
         <v>7790</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5547,13 +5529,13 @@
         <v>19249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -5562,13 +5544,13 @@
         <v>27039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5565,13 @@
         <v>15895</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>182</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -5598,13 +5580,13 @@
         <v>18349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5613,13 +5595,13 @@
         <v>34245</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>462</v>
+        <v>354</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5616,13 @@
         <v>13374</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>246</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5649,13 +5631,13 @@
         <v>8425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -5664,13 +5646,13 @@
         <v>21799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5667,13 @@
         <v>24048</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -5700,13 +5682,13 @@
         <v>13223</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -5715,13 +5697,13 @@
         <v>37271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5771,13 @@
         <v>66311</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -5804,13 +5786,13 @@
         <v>84393</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>210</v>
@@ -5819,13 +5801,13 @@
         <v>150703</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5822,13 @@
         <v>63514</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>106</v>
@@ -5855,13 +5837,13 @@
         <v>73964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>193</v>
@@ -5870,13 +5852,13 @@
         <v>137477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5873,13 @@
         <v>64488</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="H24" s="7">
         <v>108</v>
@@ -5906,10 +5888,10 @@
         <v>75148</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>500</v>
+        <v>281</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>501</v>
@@ -5948,7 +5930,7 @@
         <v>506</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -5957,13 +5939,13 @@
         <v>48361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -5972,13 +5954,13 @@
         <v>120483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>510</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>511</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5975,13 @@
         <v>94927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -6008,13 +5990,13 @@
         <v>73670</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
@@ -6023,13 +6005,13 @@
         <v>168597</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,7 +6067,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
